--- a/bots/crawl_ch/output/clothes_2022-08-04.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-04.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:23</t>
+          <t>2022-08-04 20:57:44</t>
         </is>
       </c>
     </row>
